--- a/biology/Biologie cellulaire et moléculaire/RYR2/RYR2.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/RYR2/RYR2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le RYR2 est un gène codant le récepteur cardiaque de la ryanodine.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chromosome 1
 Locus : Entre le q42.1 et q43.
@@ -544,7 +558,9 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Deux pathologies ont été identifiées en rapport avec une mutation pathologique de ce gène :
 tachycardie ventriculaire polymorphe catécholergique ;
@@ -576,9 +592,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 180902[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 180902
  Portail de la médecine   Portail de la biologie cellulaire et moléculaire                    
 ↑ a b et c GRCh38: Ensembl release 89: ENSG00000198626 - Ensembl, May 2017
 ↑ a b et c GRCm38: Ensembl release 89: ENSMUSG00000021313 - Ensembl, May 2017
